--- a/exported data/omicron_obs_dat.xlsx
+++ b/exported data/omicron_obs_dat.xlsx
@@ -667,7 +667,7 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>7560.359220953164</v>
+        <v>7560.359220953163</v>
       </c>
       <c r="F12">
         <v>3421.640779046837</v>
@@ -1317,7 +1317,7 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <v>24142.63960694345</v>
+        <v>24142.63960694344</v>
       </c>
       <c r="F38">
         <v>9246.360393056555</v>
@@ -1467,7 +1467,7 @@
         <v>288</v>
       </c>
       <c r="E44">
-        <v>98628.80943946976</v>
+        <v>98628.80943946975</v>
       </c>
       <c r="F44">
         <v>32898.19056053025</v>
@@ -1642,7 +1642,7 @@
         <v>792</v>
       </c>
       <c r="E51">
-        <v>185103.887345316</v>
+        <v>185103.8873453159</v>
       </c>
       <c r="F51">
         <v>70990.11265468405</v>
@@ -1692,7 +1692,7 @@
         <v>1144</v>
       </c>
       <c r="E53">
-        <v>185583.2344243208</v>
+        <v>185583.2344243207</v>
       </c>
       <c r="F53">
         <v>70158.76557567925</v>
@@ -2220,7 +2220,7 @@
         <v>5683.402580433994</v>
       </c>
       <c r="F74">
-        <v>4809.597419566007</v>
+        <v>4809.597419566006</v>
       </c>
       <c r="G74">
         <v>14</v>
@@ -2495,7 +2495,7 @@
         <v>121160.3599010573</v>
       </c>
       <c r="F85">
-        <v>35544.64009894274</v>
+        <v>35544.64009894273</v>
       </c>
       <c r="G85">
         <v>28</v>
@@ -2545,7 +2545,7 @@
         <v>47335.12180975048</v>
       </c>
       <c r="F87">
-        <v>23906.87819024953</v>
+        <v>23906.87819024952</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>92</v>
       </c>
       <c r="E97">
-        <v>20512.61939856364</v>
+        <v>20512.61939856363</v>
       </c>
       <c r="F97">
         <v>7364.380601436365</v>
@@ -2945,7 +2945,7 @@
         <v>8028.323805703712</v>
       </c>
       <c r="F103">
-        <v>2905.676194296289</v>
+        <v>2905.676194296288</v>
       </c>
       <c r="G103">
         <v>7</v>
@@ -3070,7 +3070,7 @@
         <v>8028.323805703712</v>
       </c>
       <c r="F108">
-        <v>2905.676194296289</v>
+        <v>2905.676194296288</v>
       </c>
       <c r="G108">
         <v>175</v>
@@ -3295,7 +3295,7 @@
         <v>67350.06399212749</v>
       </c>
       <c r="F117">
-        <v>35028.93600787252</v>
+        <v>35028.93600787251</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>194946.4075889525</v>
       </c>
       <c r="F122">
-        <v>137230.5924110476</v>
+        <v>137230.5924110475</v>
       </c>
       <c r="G122">
         <v>14</v>
@@ -3795,7 +3795,7 @@
         <v>111139.4581493356</v>
       </c>
       <c r="F137">
-        <v>53803.54185066444</v>
+        <v>53803.54185066443</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>30459.84272693332</v>
       </c>
       <c r="F145">
-        <v>11497.15727306669</v>
+        <v>11497.15727306668</v>
       </c>
       <c r="G145">
         <v>21</v>
@@ -4020,7 +4020,7 @@
         <v>30599.45573887718</v>
       </c>
       <c r="F146">
-        <v>11325.54426112283</v>
+        <v>11325.54426112282</v>
       </c>
       <c r="G146">
         <v>28</v>
@@ -4345,7 +4345,7 @@
         <v>268253.4573578433</v>
       </c>
       <c r="F159">
-        <v>106016.6195652337</v>
+        <v>106016.6195652336</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -4420,7 +4420,7 @@
         <v>269241.4758500466</v>
       </c>
       <c r="F162">
-        <v>105017.5241499535</v>
+        <v>105017.5241499534</v>
       </c>
       <c r="G162">
         <v>14</v>
@@ -4817,10 +4817,10 @@
         <v>32</v>
       </c>
       <c r="E178">
-        <v>6282.927292572445</v>
+        <v>6282.927292572444</v>
       </c>
       <c r="F178">
-        <v>5233.072707427557</v>
+        <v>5233.072707427556</v>
       </c>
       <c r="G178">
         <v>7</v>
@@ -4867,10 +4867,10 @@
         <v>36</v>
       </c>
       <c r="E180">
-        <v>6312.050586108729</v>
+        <v>6312.050586108727</v>
       </c>
       <c r="F180">
-        <v>5199.949413891271</v>
+        <v>5199.949413891273</v>
       </c>
       <c r="G180">
         <v>21</v>
@@ -5067,7 +5067,7 @@
         <v>180</v>
       </c>
       <c r="E188">
-        <v>40847.88273784609</v>
+        <v>40847.88273784608</v>
       </c>
       <c r="F188">
         <v>18300.11726215392</v>
@@ -5867,7 +5867,7 @@
         <v>564</v>
       </c>
       <c r="E220">
-        <v>82375.70006182834</v>
+        <v>82375.70006182833</v>
       </c>
       <c r="F220">
         <v>31973.29993817167</v>
@@ -5917,7 +5917,7 @@
         <v>36</v>
       </c>
       <c r="E222">
-        <v>16155.67126330139</v>
+        <v>16155.67126330138</v>
       </c>
       <c r="F222">
         <v>7820.328736698615</v>
@@ -7270,7 +7270,7 @@
         <v>17329.31396966806</v>
       </c>
       <c r="F276">
-        <v>5461.686030331945</v>
+        <v>5461.686030331944</v>
       </c>
       <c r="G276">
         <v>7</v>
@@ -7442,7 +7442,7 @@
         <v>384.6153846153846</v>
       </c>
       <c r="E283">
-        <v>769889.8262891359</v>
+        <v>769889.8262891358</v>
       </c>
       <c r="F283">
         <v>304200.5583262487</v>
@@ -7467,10 +7467,10 @@
         <v>2072.923076923077</v>
       </c>
       <c r="E284">
-        <v>769157.8253871359</v>
+        <v>769157.8253871358</v>
       </c>
       <c r="F284">
-        <v>303244.2515359412</v>
+        <v>303244.2515359411</v>
       </c>
       <c r="G284">
         <v>7</v>
@@ -7645,7 +7645,7 @@
         <v>9652.857064882885</v>
       </c>
       <c r="F291">
-        <v>5299.142935117116</v>
+        <v>5299.142935117115</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -8217,10 +8217,10 @@
         <v>240</v>
       </c>
       <c r="E314">
-        <v>111010.167296839</v>
+        <v>111010.1672968389</v>
       </c>
       <c r="F314">
-        <v>83818.83270316104</v>
+        <v>83818.83270316105</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -8642,7 +8642,7 @@
         <v>176</v>
       </c>
       <c r="E331">
-        <v>40684.3471105115</v>
+        <v>40684.34711051149</v>
       </c>
       <c r="F331">
         <v>19538.65288948851</v>
@@ -8692,7 +8692,7 @@
         <v>168</v>
       </c>
       <c r="E333">
-        <v>40900.44065601329</v>
+        <v>40900.44065601328</v>
       </c>
       <c r="F333">
         <v>19330.55934398672</v>
@@ -8767,7 +8767,7 @@
         <v>176</v>
       </c>
       <c r="E336">
-        <v>40684.3471105115</v>
+        <v>40684.34711051149</v>
       </c>
       <c r="F336">
         <v>19538.65288948851</v>
@@ -8817,7 +8817,7 @@
         <v>168</v>
       </c>
       <c r="E338">
-        <v>40900.44065601329</v>
+        <v>40900.44065601328</v>
       </c>
       <c r="F338">
         <v>19330.55934398672</v>
@@ -9020,7 +9020,7 @@
         <v>27516.98532299954</v>
       </c>
       <c r="F346">
-        <v>11622.01467700047</v>
+        <v>11622.01467700046</v>
       </c>
       <c r="G346">
         <v>35</v>
@@ -9067,10 +9067,10 @@
         <v>286</v>
       </c>
       <c r="E348">
-        <v>120140.0094875787</v>
+        <v>120140.0094875786</v>
       </c>
       <c r="F348">
-        <v>58006.99051242136</v>
+        <v>58006.99051242135</v>
       </c>
       <c r="G348">
         <v>7</v>
@@ -9120,7 +9120,7 @@
         <v>120447.899379752</v>
       </c>
       <c r="F350">
-        <v>57197.10062024804</v>
+        <v>57197.10062024803</v>
       </c>
       <c r="G350">
         <v>21</v>
@@ -9370,7 +9370,7 @@
         <v>33253.18272888017</v>
       </c>
       <c r="F360">
-        <v>11637.81727111984</v>
+        <v>11637.81727111983</v>
       </c>
       <c r="G360">
         <v>7</v>
@@ -9520,7 +9520,7 @@
         <v>99052.07358986409</v>
       </c>
       <c r="F366">
-        <v>33309.92641013592</v>
+        <v>33309.92641013591</v>
       </c>
       <c r="G366">
         <v>21</v>
@@ -9967,7 +9967,7 @@
         <v>112</v>
       </c>
       <c r="E384">
-        <v>46059.40534743868</v>
+        <v>46059.40534743867</v>
       </c>
       <c r="F384">
         <v>17213.59465256133</v>
@@ -10020,7 +10020,7 @@
         <v>46183.29622728055</v>
       </c>
       <c r="F386">
-        <v>16959.70377271946</v>
+        <v>16959.70377271945</v>
       </c>
       <c r="G386">
         <v>14</v>
@@ -10667,10 +10667,10 @@
         <v>72</v>
       </c>
       <c r="E412">
-        <v>8966.096901452744</v>
+        <v>8966.096901452742</v>
       </c>
       <c r="F412">
-        <v>5221.903098547256</v>
+        <v>5221.903098547258</v>
       </c>
       <c r="G412">
         <v>35</v>
@@ -10895,7 +10895,7 @@
         <v>2634.660092311025</v>
       </c>
       <c r="F421">
-        <v>1446.339907688976</v>
+        <v>1446.339907688975</v>
       </c>
       <c r="G421">
         <v>28</v>
@@ -10945,7 +10945,7 @@
         <v>160264.8612144003</v>
       </c>
       <c r="F423">
-        <v>70050.29263175358</v>
+        <v>70050.29263175357</v>
       </c>
       <c r="G423">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>797237.7819749143</v>
       </c>
       <c r="F433">
-        <v>269553.2180250858</v>
+        <v>269553.2180250857</v>
       </c>
       <c r="G433">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>25765.93541499362</v>
       </c>
       <c r="F471">
-        <v>11684.06458500639</v>
+        <v>11684.06458500638</v>
       </c>
       <c r="G471">
         <v>14</v>
@@ -12270,7 +12270,7 @@
         <v>12346.51784336217</v>
       </c>
       <c r="F476">
-        <v>5373.482156637831</v>
+        <v>5373.48215663783</v>
       </c>
       <c r="G476">
         <v>0</v>
@@ -12295,7 +12295,7 @@
         <v>12364.46404235547</v>
       </c>
       <c r="F477">
-        <v>5343.535957644534</v>
+        <v>5343.535957644533</v>
       </c>
       <c r="G477">
         <v>7</v>
@@ -12317,7 +12317,7 @@
         <v>86</v>
       </c>
       <c r="E478">
-        <v>12379.99044838285</v>
+        <v>12379.99044838284</v>
       </c>
       <c r="F478">
         <v>5294.009551617155</v>
